--- a/Economic Results (Overall Flowsheet).xlsx
+++ b/Economic Results (Overall Flowsheet).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\CAPD-Project-DME-Production-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF0D0A7-E54C-4F78-B5AE-E84B8591E867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833EED04-BC7C-4571-99B6-41F6C611683C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C3F1260-EA60-4782-9562-E3CE1880C70A}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
-    <sheet name="Utilities " sheetId="1" r:id="rId2"/>
-    <sheet name="Capital Cost" sheetId="3" r:id="rId3"/>
+    <sheet name="Electricity Generated" sheetId="5" r:id="rId2"/>
+    <sheet name="Utilities " sheetId="1" r:id="rId3"/>
+    <sheet name="Capital Cost" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
   <si>
     <t>Utility</t>
   </si>
@@ -369,13 +370,124 @@
   </si>
   <si>
     <t xml:space="preserve"># Raw Material Cost is calculated with the prices given in the PDF File </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity Generated </t>
+  </si>
+  <si>
+    <t>Electricity used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electricity_generated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duty(kW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMR.PUMP</t>
+  </si>
+  <si>
+    <t>SMR.B5</t>
+  </si>
+  <si>
+    <t>SMR.COMP1</t>
+  </si>
+  <si>
+    <t>SMR.TURBINE</t>
+  </si>
+  <si>
+    <t>SMR.COMP2</t>
+  </si>
+  <si>
+    <t>Total needed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total generated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electricity generated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electricity price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUR/MWh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selling price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUR/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUR/year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculating ROI and POT with sold electrical power (utilities) generated from the integrated powerplant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return from sold (electrical) utilities </t>
+  </si>
+  <si>
+    <t>Total Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case 2: Electrical Utilities sold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROI </t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>[EUR/a]</t>
+  </si>
+  <si>
+    <t>[Year]</t>
+  </si>
+  <si>
+    <t>This sheet contains calculated generated electricity within the dimethyl-ether (DME) production plant through integrated rankine cycle</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of electricity usage to electricity produced </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -419,8 +531,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +569,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -502,12 +634,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -534,14 +663,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,8 +768,8 @@
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3185160" cy="449580"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -762,7 +903,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -854,8 +995,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2293620" cy="495300"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -897,6 +1038,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -972,7 +1114,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1352,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90339E0E-CE13-47DD-BA87-A2E9F78633D8}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,25 +1509,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="1">
         <v>114399847.8</v>
       </c>
@@ -1394,18 +1536,18 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="1">
         <v>85316384.299999997</v>
       </c>
@@ -1424,7 +1566,7 @@
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1434,12 +1576,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D12">
@@ -1451,7 +1593,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D13">
@@ -1463,7 +1605,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D14">
@@ -1477,16 +1619,16 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16">
         <f>D13-D14-E5</f>
         <v>47718012.700000003</v>
@@ -1496,18 +1638,18 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18">
         <v>20</v>
       </c>
@@ -1516,11 +1658,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19">
         <f>E3*2</f>
         <v>228799695.59999999</v>
@@ -1533,11 +1675,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20">
         <f>E3/D18</f>
         <v>5719992.3899999997</v>
@@ -1547,11 +1689,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="1">
         <f>(D16-D20)/D19</f>
         <v>0.18355802528436582</v>
@@ -1568,26 +1710,90 @@
       <c r="F25" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="1">
         <f>D19/D16</f>
         <v>4.794828674832889</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="2">
+        <v>285068651</v>
+      </c>
+      <c r="F37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39">
+        <f>D16 + E37</f>
+        <v>332786663.69999999</v>
+      </c>
+      <c r="F39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="1">
+        <f>(E39-D20)/D19</f>
+        <v>1.4294891016017592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="1">
+        <f>D19/E39</f>
+        <v>0.68752663660301605</v>
+      </c>
+      <c r="F43" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A33:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1596,11 +1802,410 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC5701B-833F-4E19-A9BA-43016E71FF6F}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2">
+        <v>28208.1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2">
+        <v>270351</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6448.68</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="2">
+        <v>117971</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22201.7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="2">
+        <v>441515</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12452.8</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7328.01</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3601.3</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2">
+        <v>13149.7</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13289.3</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="2">
+        <f>SUM(B7:B14)</f>
+        <v>106679.59</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="2">
+        <f>SUM(F7:F9)</f>
+        <v>829837</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="2">
+        <f>-B17+F17</f>
+        <v>723157.41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="2">
+        <v>723.15741000000003</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="K22">
+        <f>(B17/F17)*100</f>
+        <v>12.855487282442212</v>
+      </c>
+      <c r="L22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="2">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="2">
+        <f>(B24*B25)*D22</f>
+        <v>32542.083450000002</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2">
+        <f>B27*24*365</f>
+        <v>285068651.02200001</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>285068651</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6397EE9D-A6D4-4003-B78A-A3CE28CDBA36}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,14 +2216,18 @@
     <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1690,7 +2299,7 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E12" si="0">C8*24*365</f>
+        <f t="shared" ref="E8:E9" si="0">C8*24*365</f>
         <v>20683108.454399999</v>
       </c>
     </row>
@@ -1808,18 +2417,18 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD870FA-519F-4FE4-9807-9490B4DA56C0}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,476 +2437,477 @@
     <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
         <v>80</v>
       </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>285000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>4929500</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>1994900</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>5939500</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>8500000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>1692500</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>1002900</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>3450000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>110800</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>914900</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>3554700</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>23300</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>2750000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>360800</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>99600</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>720500</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>1306700</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>106600</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>299400</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>450000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>433100</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>120000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>3866400</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>111700</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>5939500</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>3355800</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>6939500</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>2414200</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>92900</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>433800</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="9">
         <v>531500</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <v>81700</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <v>4250790</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="10">
         <v>3554700</v>
       </c>
     </row>
@@ -2319,6 +2929,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>